--- a/smarthome/data/load_profile_data/load_profile_v1.xlsx
+++ b/smarthome/data/load_profile_data/load_profile_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emirk\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EEFB65-D45E-4E36-9640-C4271FEAC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6492C-20FA-4AF3-AB2E-ECEFEBBAAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2190" windowWidth="18555" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,15 +218,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,36 +230,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -331,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,19 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -649,21 +600,21 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -686,7 +637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -702,14 +653,14 @@
       <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -719,20 +670,20 @@
       <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -748,14 +699,14 @@
       <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,20 +716,20 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,14 +745,14 @@
       <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -811,20 +762,20 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -840,42 +791,42 @@
       <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -886,14 +837,14 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -903,20 +854,20 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -932,14 +883,14 @@
       <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -949,20 +900,20 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -978,37 +929,37 @@
       <c r="E14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1024,14 +975,14 @@
       <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1041,25 +992,25 @@
       <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1070,14 +1021,14 @@
       <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1087,20 +1038,20 @@
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1116,14 +1067,14 @@
       <c r="E20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1133,43 +1084,43 @@
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1179,25 +1130,25 @@
       <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
@@ -1208,14 +1159,14 @@
       <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1225,43 +1176,43 @@
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1271,20 +1222,20 @@
       <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1300,14 +1251,14 @@
       <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1317,20 +1268,20 @@
       <c r="C29" s="5">
         <v>2</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1346,33 +1297,33 @@
       <c r="E30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>0.05</v>
       </c>
       <c r="C31" s="6">
         <v>5</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>43</v>
       </c>
     </row>

--- a/smarthome/data/load_profile_data/load_profile_v1.xlsx
+++ b/smarthome/data/load_profile_data/load_profile_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emirk\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6492C-20FA-4AF3-AB2E-ECEFEBBAAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EEFB65-D45E-4E36-9640-C4271FEAC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2190" windowWidth="18555" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +218,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +237,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,7 +351,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,21 +649,21 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -637,7 +686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,14 +702,14 @@
       <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,20 +719,20 @@
       <c r="C3" s="5">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -699,14 +748,14 @@
       <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -716,20 +765,20 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -745,14 +794,14 @@
       <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -762,20 +811,20 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,42 +840,42 @@
       <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -837,14 +886,14 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -854,20 +903,20 @@
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -883,14 +932,14 @@
       <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -900,20 +949,20 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -929,37 +978,37 @@
       <c r="E14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -975,14 +1024,14 @@
       <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -992,25 +1041,25 @@
       <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1021,14 +1070,14 @@
       <c r="E18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1038,20 +1087,20 @@
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1067,14 +1116,14 @@
       <c r="E20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1084,43 +1133,43 @@
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1130,25 +1179,25 @@
       <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
@@ -1159,14 +1208,14 @@
       <c r="E24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1176,43 +1225,43 @@
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1222,20 +1271,20 @@
       <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1251,14 +1300,14 @@
       <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1268,20 +1317,20 @@
       <c r="C29" s="5">
         <v>2</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1297,33 +1346,33 @@
       <c r="E30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>0.05</v>
       </c>
       <c r="C31" s="6">
         <v>5</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="10" t="s">
         <v>43</v>
       </c>
     </row>
